--- a/01_Currency_Converter/Currency-Converter_Working-Files/Report.xlsx
+++ b/01_Currency_Converter/Currency-Converter_Working-Files/Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\Documents\GitHub\rpa-projects\01_Currenty_Converter\Currency-Converter_Working-Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\Documents\GitHub\rpa-projects\01_Currency_Converter\Currency-Converter_Working-Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DECA20-0FF2-42A0-992A-4EDE279C8269}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878D1A90-85F3-417E-B471-DA2206C32984}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2832" yWindow="1308" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{15A78E8C-1526-4901-A01D-F33BC4972694}"/>
+    <workbookView xWindow="0" yWindow="24" windowWidth="16188" windowHeight="8964" xr2:uid="{15A78E8C-1526-4901-A01D-F33BC4972694}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId4"/>
+    <pivotCache cacheId="3" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -238,9 +238,6 @@
     <t>Total Sales USD</t>
   </si>
   <si>
-    <t>0,82</t>
-  </si>
-  <si>
     <t>Zeilenbeschriftungen</t>
   </si>
   <si>
@@ -248,6 +245,9 @@
   </si>
   <si>
     <t>Summe von Total Sales USD</t>
+  </si>
+  <si>
+    <t>0,83</t>
   </si>
 </sst>
 </file>
@@ -314,7 +314,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Johannes Siedersberger" refreshedDate="44181.652352893521" createdVersion="1" refreshedVersion="6" recordCount="49" xr:uid="{225249F5-2091-4706-B25C-7BDBF58290E1}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Johannes Siedersberger" refreshedDate="44234.645864004633" createdVersion="1" refreshedVersion="6" recordCount="49" xr:uid="{3700DDA3-6524-4F50-8548-1B6F3452CC24}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:F50" sheet="Report"/>
   </cacheSource>
@@ -341,7 +341,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Total Sales USD" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="919.2281999999999" maxValue="268404.84000000003"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1345.212" maxValue="272381.20800000004"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -360,7 +360,7 @@
     <s v="EUR"/>
     <n v="6691"/>
     <x v="0"/>
-    <n v="61395.277799999989"/>
+    <n v="89846.747999999992"/>
   </r>
   <r>
     <s v="Chocolate - Pistoles, White"/>
@@ -368,7 +368,7 @@
     <s v="EUR"/>
     <n v="537"/>
     <x v="0"/>
-    <n v="7679.5295999999998"/>
+    <n v="11238.336000000001"/>
   </r>
   <r>
     <s v="Lemons"/>
@@ -376,7 +376,7 @@
     <s v="EUR"/>
     <n v="3966"/>
     <x v="0"/>
-    <n v="44619.0864"/>
+    <n v="65296.224000000002"/>
   </r>
   <r>
     <s v="Cheese - Colby"/>
@@ -384,7 +384,7 @@
     <s v="EUR"/>
     <n v="2532"/>
     <x v="0"/>
-    <n v="14076.907199999998"/>
+    <n v="20600.351999999999"/>
   </r>
   <r>
     <s v="Pepper - Orange"/>
@@ -400,7 +400,7 @@
     <s v="EUR"/>
     <n v="2088"/>
     <x v="0"/>
-    <n v="21093.8112"/>
+    <n v="30868.991999999998"/>
   </r>
   <r>
     <s v="Puff Pastry - Slab"/>
@@ -408,7 +408,7 @@
     <s v="EUR"/>
     <n v="4438"/>
     <x v="0"/>
-    <n v="22744.75"/>
+    <n v="33285"/>
   </r>
   <r>
     <s v="Mints - Striped Red"/>
@@ -416,7 +416,7 @@
     <s v="EUR"/>
     <n v="4947"/>
     <x v="0"/>
-    <n v="34521.155399999996"/>
+    <n v="50518.764000000003"/>
   </r>
   <r>
     <s v="Sprouts - Baby Pea Tendrils"/>
@@ -424,7 +424,7 @@
     <s v="EUR"/>
     <n v="4382"/>
     <x v="0"/>
-    <n v="106252.10679999999"/>
+    <n v="155490.88800000001"/>
   </r>
   <r>
     <s v="Heavy Duty Dust Pan"/>
@@ -456,7 +456,7 @@
     <s v="EUR"/>
     <n v="4851"/>
     <x v="0"/>
-    <n v="5330.2788"/>
+    <n v="7800.4079999999994"/>
   </r>
   <r>
     <s v="Lettuce - Curly Endive"/>
@@ -464,7 +464,7 @@
     <s v="EUR"/>
     <n v="374"/>
     <x v="2"/>
-    <n v="6115.1992"/>
+    <n v="8949.0720000000001"/>
   </r>
   <r>
     <s v="Myers Planters Punch"/>
@@ -472,7 +472,7 @@
     <s v="EUR"/>
     <n v="7464"/>
     <x v="0"/>
-    <n v="2631.8063999999999"/>
+    <n v="3851.424"/>
   </r>
   <r>
     <s v="Rootbeer"/>
@@ -480,7 +480,7 @@
     <s v="EUR"/>
     <n v="7161"/>
     <x v="0"/>
-    <n v="131122.20659999998"/>
+    <n v="191886.15599999996"/>
   </r>
   <r>
     <s v="Urban Zen Drinks"/>
@@ -488,7 +488,7 @@
     <s v="EUR"/>
     <n v="1785"/>
     <x v="0"/>
-    <n v="19686.764999999999"/>
+    <n v="28809.899999999998"/>
   </r>
   <r>
     <s v="Iced Tea - Lemon, 460 Ml"/>
@@ -496,7 +496,7 @@
     <s v="EUR"/>
     <n v="43"/>
     <x v="0"/>
-    <n v="919.2281999999999"/>
+    <n v="1345.212"/>
   </r>
   <r>
     <s v="Bread - Flat Bread"/>
@@ -504,7 +504,7 @@
     <s v="EUR"/>
     <n v="2684"/>
     <x v="0"/>
-    <n v="2861.1440000000002"/>
+    <n v="4187.04"/>
   </r>
   <r>
     <s v="Petit Baguette"/>
@@ -512,7 +512,7 @@
     <s v="EUR"/>
     <n v="1965"/>
     <x v="0"/>
-    <n v="40363.064999999995"/>
+    <n v="59067.899999999994"/>
   </r>
   <r>
     <s v="Cheese Cloth No 100"/>
@@ -520,7 +520,7 @@
     <s v="EUR"/>
     <n v="2477"/>
     <x v="2"/>
-    <n v="4712.2447999999995"/>
+    <n v="6895.9679999999989"/>
   </r>
   <r>
     <s v="Wine - Chateauneuf Du Pape"/>
@@ -528,7 +528,7 @@
     <s v="GBP"/>
     <n v="8860"/>
     <x v="3"/>
-    <n v="268404.84000000003"/>
+    <n v="272381.20800000004"/>
   </r>
   <r>
     <s v="Sausage - Chorizo"/>
@@ -536,7 +536,7 @@
     <s v="EUR"/>
     <n v="502"/>
     <x v="0"/>
-    <n v="7932.3027999999986"/>
+    <n v="11608.247999999998"/>
   </r>
   <r>
     <s v="Onions - White"/>
@@ -544,7 +544,7 @@
     <s v="EUR"/>
     <n v="3636"/>
     <x v="0"/>
-    <n v="80441.409599999999"/>
+    <n v="117719.136"/>
   </r>
   <r>
     <s v="Towel Multifold"/>
@@ -552,7 +552,7 @@
     <s v="EUR"/>
     <n v="3372"/>
     <x v="0"/>
-    <n v="39235.917600000001"/>
+    <n v="57418.415999999997"/>
   </r>
   <r>
     <s v="Marzipan 50/50"/>
@@ -560,7 +560,7 @@
     <s v="GBP"/>
     <n v="2250"/>
     <x v="3"/>
-    <n v="34384.5"/>
+    <n v="34893.9"/>
   </r>
   <r>
     <s v="Muffin Batt - Blueberry Passion"/>
@@ -568,7 +568,7 @@
     <s v="EUR"/>
     <n v="7537"/>
     <x v="0"/>
-    <n v="123606.79999999999"/>
+    <n v="180888"/>
   </r>
   <r>
     <s v="Yogurt - Strawberry, 175 Gr"/>
@@ -576,7 +576,7 @@
     <s v="EUR"/>
     <n v="7344"/>
     <x v="0"/>
-    <n v="87320.159999999989"/>
+    <n v="127785.59999999999"/>
   </r>
   <r>
     <s v="Pepper - Jalapeno"/>
@@ -584,7 +584,7 @@
     <s v="EUR"/>
     <n v="5267"/>
     <x v="4"/>
-    <n v="2548.1745999999998"/>
+    <n v="3729.0359999999996"/>
   </r>
   <r>
     <s v="Vaccum Bag 10x13"/>
@@ -592,7 +592,7 @@
     <s v="EUR"/>
     <n v="5002"/>
     <x v="0"/>
-    <n v="36709.677999999993"/>
+    <n v="53721.479999999989"/>
   </r>
   <r>
     <s v="Icecream - Dstk Super Cone"/>
@@ -600,7 +600,7 @@
     <s v="EUR"/>
     <n v="1623"/>
     <x v="0"/>
-    <n v="36265.934999999998"/>
+    <n v="53072.1"/>
   </r>
   <r>
     <s v="Tea - Herbal I Love Lemon"/>
@@ -616,7 +616,7 @@
     <s v="EUR"/>
     <n v="5100"/>
     <x v="0"/>
-    <n v="39478.079999999994"/>
+    <n v="57772.799999999996"/>
   </r>
   <r>
     <s v="Tomatoes Tear Drop Yellow"/>
@@ -624,7 +624,7 @@
     <s v="EUR"/>
     <n v="5565"/>
     <x v="2"/>
-    <n v="13051.037999999999"/>
+    <n v="19099.079999999998"/>
   </r>
   <r>
     <s v="Pear - Prickly"/>
@@ -632,7 +632,7 @@
     <s v="EUR"/>
     <n v="6381"/>
     <x v="0"/>
-    <n v="9732.3011999999999"/>
+    <n v="14242.392"/>
   </r>
   <r>
     <s v="Muffin - Bran Ind Wrpd"/>
@@ -640,7 +640,7 @@
     <s v="EUR"/>
     <n v="8595"/>
     <x v="0"/>
-    <n v="104943.231"/>
+    <n v="153575.46"/>
   </r>
   <r>
     <s v="Sauerkraut"/>
@@ -648,7 +648,7 @@
     <s v="EUR"/>
     <n v="1480"/>
     <x v="4"/>
-    <n v="9053.4559999999983"/>
+    <n v="13248.96"/>
   </r>
   <r>
     <s v="Lemonade - Kiwi, 591 Ml"/>
@@ -656,7 +656,7 @@
     <s v="EUR"/>
     <n v="455"/>
     <x v="0"/>
-    <n v="8596.2239999999983"/>
+    <n v="12579.839999999998"/>
   </r>
   <r>
     <s v="Lamb - Sausage Casings"/>
@@ -664,7 +664,7 @@
     <s v="EUR"/>
     <n v="3501"/>
     <x v="0"/>
-    <n v="52679.546999999999"/>
+    <n v="77092.02"/>
   </r>
   <r>
     <s v="Eggplant Oriental"/>
@@ -672,7 +672,7 @@
     <s v="EUR"/>
     <n v="3793"/>
     <x v="0"/>
-    <n v="18910.380799999999"/>
+    <n v="27673.727999999999"/>
   </r>
   <r>
     <s v="Seedlings - Buckwheat, Organic"/>
@@ -680,7 +680,7 @@
     <s v="EUR"/>
     <n v="3633"/>
     <x v="2"/>
-    <n v="58687.481999999989"/>
+    <n v="85884.119999999981"/>
   </r>
   <r>
     <s v="Pear - Asian"/>
@@ -688,7 +688,7 @@
     <s v="EUR"/>
     <n v="3677"/>
     <x v="0"/>
-    <n v="77881.066199999987"/>
+    <n v="113972.29199999999"/>
   </r>
   <r>
     <s v="Sparkling Wine - Rose, Freixenet"/>
@@ -696,7 +696,7 @@
     <s v="EUR"/>
     <n v="324"/>
     <x v="0"/>
-    <n v="5717.4335999999994"/>
+    <n v="8366.9759999999987"/>
   </r>
   <r>
     <s v="Bagels Poppyseed"/>
@@ -728,7 +728,7 @@
     <s v="EUR"/>
     <n v="7160"/>
     <x v="0"/>
-    <n v="136387.976"/>
+    <n v="199592.16"/>
   </r>
   <r>
     <s v="Milk Powder"/>
@@ -736,7 +736,7 @@
     <s v="EUR"/>
     <n v="6880"/>
     <x v="0"/>
-    <n v="50097.408000000003"/>
+    <n v="73313.280000000013"/>
   </r>
   <r>
     <s v="Filling - Mince Meat"/>
@@ -744,13 +744,13 @@
     <s v="GBP"/>
     <n v="2964"/>
     <x v="3"/>
-    <n v="41214.420000000006"/>
+    <n v="41825.004000000001"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F2F4D53E-EA12-46EB-A028-F970177B2E15}" name="Countries Sales Overview" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Daten" updatedVersion="6" asteriskTotals="1" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" pageOverThenDown="1" itemPrintTitles="1" showDropZones="0" indent="0" outline="1" outlineData="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B6F0605B-6BC4-4E93-9824-5D101EE76999}" name="Countries Sales Overview" cacheId="3" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Daten" updatedVersion="6" asteriskTotals="1" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" pageOverThenDown="1" itemPrintTitles="1" showDropZones="0" indent="0" outline="1" outlineData="1">
   <location ref="A1:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0" includeNewItemsInFilter="1">
@@ -850,7 +850,7 @@
   <autoFilter ref="A1:B6" xr:uid="{DA0CDED8-A643-427D-B58E-C0CA1A223D7E}"/>
   <tableColumns count="2">
     <tableColumn id="2" xr3:uid="{7E30BB63-AC76-4874-8765-D7F0974B07A2}" name="Currency"/>
-    <tableColumn id="3" xr3:uid="{79E5875F-D56B-4C45-BEF2-7406BEF0C121}" name="0,82" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{79E5875F-D56B-4C45-BEF2-7406BEF0C121}" name="0,83" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1155,7 +1155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D0FF419-5C59-4305-9687-08409BAAB227}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
@@ -1170,10 +1170,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1181,7 +1181,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="5">
-        <v>1431232.9691999999</v>
+        <v>2094487.2720000001</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1189,7 +1189,7 @@
         <v>43</v>
       </c>
       <c r="B3" s="5">
-        <v>11601.630599999999</v>
+        <v>16977.995999999999</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1205,7 +1205,7 @@
         <v>26</v>
       </c>
       <c r="B5" s="5">
-        <v>82565.963999999978</v>
+        <v>120828.23999999998</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1213,15 +1213,15 @@
         <v>35</v>
       </c>
       <c r="B6" s="5">
-        <v>344003.76</v>
+        <v>349100.11200000008</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="5">
-        <v>1923729.3929999999</v>
+        <v>2635718.6891999999</v>
       </c>
     </row>
   </sheetData>
@@ -1233,8 +1233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397DCC17-72C4-4EFA-AE16-E000C660F210}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F50"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1283,6 +1283,10 @@
       <c r="E2" t="s">
         <v>11</v>
       </c>
+      <c r="F2">
+        <f>6691*11.19*1.2</f>
+        <v>89846.747999999992</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1301,6 +1305,10 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
+      <c r="F3">
+        <f>537*17.44*1.2</f>
+        <v>11238.336000000001</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1319,6 +1327,10 @@
       <c r="E4" t="s">
         <v>11</v>
       </c>
+      <c r="F4">
+        <f>3966*13.72*1.2</f>
+        <v>65296.224000000002</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1337,6 +1349,10 @@
       <c r="E5" t="s">
         <v>11</v>
       </c>
+      <c r="F5">
+        <f>2532*6.78*1.2</f>
+        <v>20600.351999999999</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1355,6 +1371,10 @@
       <c r="E6" t="s">
         <v>16</v>
       </c>
+      <c r="F6">
+        <f>5441*2.44*0.12</f>
+        <v>1593.1247999999998</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1373,6 +1393,10 @@
       <c r="E7" t="s">
         <v>11</v>
       </c>
+      <c r="F7">
+        <f>2088*12.32*1.2</f>
+        <v>30868.991999999998</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1391,6 +1415,10 @@
       <c r="E8" t="s">
         <v>11</v>
       </c>
+      <c r="F8">
+        <f>4438*6.25*1.2</f>
+        <v>33285</v>
+      </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1409,6 +1437,10 @@
       <c r="E9" t="s">
         <v>11</v>
       </c>
+      <c r="F9">
+        <f>4947*8.51*1.2</f>
+        <v>50518.764000000003</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1427,6 +1459,10 @@
       <c r="E10" t="s">
         <v>11</v>
       </c>
+      <c r="F10">
+        <f>4382*29.57*1.2</f>
+        <v>155490.88800000001</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1445,6 +1481,10 @@
       <c r="E11" t="s">
         <v>16</v>
       </c>
+      <c r="F11">
+        <f>5073*10.35*0.12</f>
+        <v>6300.6659999999993</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1463,6 +1503,10 @@
       <c r="E12" t="s">
         <v>16</v>
       </c>
+      <c r="F12">
+        <f>6265*24.59*0.12</f>
+        <v>18486.761999999999</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1481,6 +1525,10 @@
       <c r="E13" t="s">
         <v>16</v>
       </c>
+      <c r="F13">
+        <f>3822*5.76*0.12</f>
+        <v>2641.7663999999995</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1499,6 +1547,10 @@
       <c r="E14" t="s">
         <v>11</v>
       </c>
+      <c r="F14">
+        <f>4851*1.34*1.2</f>
+        <v>7800.4079999999994</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1517,6 +1569,10 @@
       <c r="E15" t="s">
         <v>26</v>
       </c>
+      <c r="F15">
+        <f>374*19.94*1.2</f>
+        <v>8949.0720000000001</v>
+      </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1535,6 +1591,10 @@
       <c r="E16" t="s">
         <v>11</v>
       </c>
+      <c r="F16">
+        <f>7464*0.43*1.2</f>
+        <v>3851.424</v>
+      </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1553,6 +1613,10 @@
       <c r="E17" t="s">
         <v>11</v>
       </c>
+      <c r="F17">
+        <f>7161*22.33*1.2</f>
+        <v>191886.15599999996</v>
+      </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1571,6 +1635,10 @@
       <c r="E18" t="s">
         <v>11</v>
       </c>
+      <c r="F18">
+        <f>1785*13.45*1.2</f>
+        <v>28809.899999999998</v>
+      </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1589,6 +1657,10 @@
       <c r="E19" t="s">
         <v>11</v>
       </c>
+      <c r="F19">
+        <f>43*26.07*1.2</f>
+        <v>1345.212</v>
+      </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1607,6 +1679,10 @@
       <c r="E20" t="s">
         <v>11</v>
       </c>
+      <c r="F20">
+        <f>2684*1.3*1.2</f>
+        <v>4187.04</v>
+      </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1625,6 +1701,10 @@
       <c r="E21" t="s">
         <v>11</v>
       </c>
+      <c r="F21">
+        <f>1965*25.05*1.2</f>
+        <v>59067.899999999994</v>
+      </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1643,6 +1723,10 @@
       <c r="E22" t="s">
         <v>26</v>
       </c>
+      <c r="F22">
+        <f>2477*2.32*1.2</f>
+        <v>6895.9679999999989</v>
+      </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1661,6 +1745,10 @@
       <c r="E23" t="s">
         <v>35</v>
       </c>
+      <c r="F23">
+        <f>8860*22.44*1.37</f>
+        <v>272381.20800000004</v>
+      </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1679,6 +1767,10 @@
       <c r="E24" t="s">
         <v>11</v>
       </c>
+      <c r="F24">
+        <f>502*19.27*1.2</f>
+        <v>11608.247999999998</v>
+      </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1697,6 +1789,10 @@
       <c r="E25" t="s">
         <v>11</v>
       </c>
+      <c r="F25">
+        <f>3636*26.98*1.2</f>
+        <v>117719.136</v>
+      </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1715,6 +1811,10 @@
       <c r="E26" t="s">
         <v>11</v>
       </c>
+      <c r="F26">
+        <f>3372*14.19*1.2</f>
+        <v>57418.415999999997</v>
+      </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1733,6 +1833,10 @@
       <c r="E27" t="s">
         <v>35</v>
       </c>
+      <c r="F27">
+        <f>2250*11.32*1.37</f>
+        <v>34893.9</v>
+      </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1751,6 +1855,10 @@
       <c r="E28" t="s">
         <v>11</v>
       </c>
+      <c r="F28">
+        <f>7537*20*1.2</f>
+        <v>180888</v>
+      </c>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1769,6 +1877,10 @@
       <c r="E29" t="s">
         <v>11</v>
       </c>
+      <c r="F29">
+        <f>7344*14.5*1.2</f>
+        <v>127785.59999999999</v>
+      </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1787,6 +1899,10 @@
       <c r="E30" t="s">
         <v>43</v>
       </c>
+      <c r="F30">
+        <f>5267*0.59*1.2</f>
+        <v>3729.0359999999996</v>
+      </c>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1805,6 +1921,10 @@
       <c r="E31" t="s">
         <v>11</v>
       </c>
+      <c r="F31">
+        <f>5002*8.95*1.2</f>
+        <v>53721.479999999989</v>
+      </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1823,6 +1943,10 @@
       <c r="E32" t="s">
         <v>11</v>
       </c>
+      <c r="F32">
+        <f>1623*27.25*1.2</f>
+        <v>53072.1</v>
+      </c>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1841,6 +1965,10 @@
       <c r="E33" t="s">
         <v>16</v>
       </c>
+      <c r="F33">
+        <f>5951*13.55*0.12</f>
+        <v>9676.3259999999991</v>
+      </c>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -1859,6 +1987,10 @@
       <c r="E34" t="s">
         <v>11</v>
       </c>
+      <c r="F34">
+        <f>5100*9.44*1.2</f>
+        <v>57772.799999999996</v>
+      </c>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -1877,6 +2009,10 @@
       <c r="E35" t="s">
         <v>26</v>
       </c>
+      <c r="F35">
+        <f>5565*2.86*1.2</f>
+        <v>19099.079999999998</v>
+      </c>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -1895,6 +2031,10 @@
       <c r="E36" t="s">
         <v>11</v>
       </c>
+      <c r="F36">
+        <f>6381*1.86*1.2</f>
+        <v>14242.392</v>
+      </c>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -1913,6 +2053,10 @@
       <c r="E37" t="s">
         <v>11</v>
       </c>
+      <c r="F37">
+        <f>8595*14.89*1.2</f>
+        <v>153575.46</v>
+      </c>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -1931,6 +2075,10 @@
       <c r="E38" t="s">
         <v>43</v>
       </c>
+      <c r="F38">
+        <f>1480*7.46*1.2</f>
+        <v>13248.96</v>
+      </c>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -1949,6 +2097,10 @@
       <c r="E39" t="s">
         <v>11</v>
       </c>
+      <c r="F39">
+        <f>455*23.04*1.2</f>
+        <v>12579.839999999998</v>
+      </c>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -1967,6 +2119,10 @@
       <c r="E40" t="s">
         <v>11</v>
       </c>
+      <c r="F40">
+        <f>3501*18.35*1.2</f>
+        <v>77092.02</v>
+      </c>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -1985,6 +2141,10 @@
       <c r="E41" t="s">
         <v>11</v>
       </c>
+      <c r="F41">
+        <f>3793*6.08*1.2</f>
+        <v>27673.727999999999</v>
+      </c>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -2003,6 +2163,10 @@
       <c r="E42" t="s">
         <v>26</v>
       </c>
+      <c r="F42">
+        <f>3633*19.7*1.2</f>
+        <v>85884.119999999981</v>
+      </c>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -2021,6 +2185,10 @@
       <c r="E43" t="s">
         <v>11</v>
       </c>
+      <c r="F43">
+        <f>3677*25.83*1.2</f>
+        <v>113972.29199999999</v>
+      </c>
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -2039,6 +2207,10 @@
       <c r="E44" t="s">
         <v>11</v>
       </c>
+      <c r="F44">
+        <f>324*21.52*1.2</f>
+        <v>8366.9759999999987</v>
+      </c>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -2057,6 +2229,10 @@
       <c r="E45" t="s">
         <v>16</v>
       </c>
+      <c r="F45">
+        <f>3998*19.47*0.12</f>
+        <v>9340.9272000000001</v>
+      </c>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -2075,6 +2251,10 @@
       <c r="E46" t="s">
         <v>16</v>
       </c>
+      <c r="F46">
+        <f>1996*20.09*0.12</f>
+        <v>4811.9567999999999</v>
+      </c>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -2093,6 +2273,10 @@
       <c r="E47" t="s">
         <v>16</v>
       </c>
+      <c r="F47">
+        <f>5990*2.05*0.12</f>
+        <v>1473.5399999999997</v>
+      </c>
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -2111,6 +2295,10 @@
       <c r="E48" t="s">
         <v>11</v>
       </c>
+      <c r="F48">
+        <f>7160*23.23*1.2</f>
+        <v>199592.16</v>
+      </c>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -2129,6 +2317,10 @@
       <c r="E49" t="s">
         <v>11</v>
       </c>
+      <c r="F49">
+        <f>6880*8.88*1.2</f>
+        <v>73313.280000000013</v>
+      </c>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -2146,6 +2338,10 @@
       </c>
       <c r="E50" t="s">
         <v>35</v>
+      </c>
+      <c r="F50">
+        <f>2964*10.3*1.37</f>
+        <v>41825.004000000001</v>
       </c>
       <c r="G50" s="1"/>
     </row>
@@ -2159,8 +2355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CBC93F1-35E3-4BFE-8EB8-DFA143768E8A}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2174,38 +2370,48 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2">
+        <v>1.37</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2">
+        <v>9.4999999999999998E-3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2217,15 +2423,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B47328280439544AB5C41C56297158F8" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fabe9a139e808be419ddedd7fa102e6e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="825ee06b-ca9e-4fae-a309-081319cc5c11" xmlns:ns3="328982d7-d2af-46e2-9ab4-9b069b3e82d0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="77b7738b4c2769ab1dab0c0abe4f9661" ns2:_="" ns3:_="">
     <xsd:import namespace="825ee06b-ca9e-4fae-a309-081319cc5c11"/>
@@ -2422,21 +2619,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8663CF9-7888-493F-93A2-1BE0E1617302}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0018CC9-F7DC-4545-9882-7FE098929714}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2455,11 +2653,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52CCE4E5-9104-4B74-9690-16E22278802F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8663CF9-7888-493F-93A2-1BE0E1617302}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>